--- a/data/LatticeSummaries.xlsx
+++ b/data/LatticeSummaries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365.sharepoint.com/sites/AFSGcopy/Delade dokument/General/Lattices/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_39F530526FC2B87F0943AC3C3C602E3B42567198" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -25,28 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pedro Fernandes Tavares</author>
   </authors>
   <commentList>
-    <comment ref="FE2" authorId="0" shapeId="0">
+    <comment ref="FE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -316,6 +306,9 @@
   </si>
   <si>
     <t>Updated m4U_250223_b03_01_01_01</t>
+  </si>
+  <si>
+    <t>Changed titles for challenge level columns of S1_combined, S3_combined and S6_combined</t>
   </si>
   <si>
     <t>Dynamics</t>
@@ -1059,6 +1052,12 @@
     <t>stems from MOGA NN sol.4:  ACHR_moga31102024_c__NN_S4solution 4 (DA/TLT/ADTS). m4U.m naming convention. new error model, vertical aperture in long straight</t>
   </si>
   <si>
+    <t>This is the same lattice as the one above, buit with changed physical aperture in the long straights. This is a full run with the most recent error model.</t>
+  </si>
+  <si>
+    <t>This has the same error model as the run above, but reverts the vertical aperture in the long strights to 11 mm</t>
+  </si>
+  <si>
     <t>241112_g01_01_01_01</t>
   </si>
   <si>
@@ -1526,20 +1525,11 @@
   <si>
     <t>HW</t>
   </si>
-  <si>
-    <t>Changed titles for challenge level columns of S1_combined, S3_combined and S6_combined</t>
-  </si>
-  <si>
-    <t>This is the same lattice as the one above, buit with changed physical aperture in the long straights. This is a full run with the most recent error model.</t>
-  </si>
-  <si>
-    <t>This has the same error model as the run above, but reverts the vertical aperture in the long strights to 11 mm</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1548,7 +1538,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2058,30 +2048,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,10 +2086,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2117,7 +2107,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="803">
     <dxf>
@@ -9120,16 +9110,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E73"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <pane ySplit="2235" topLeftCell="A63" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -9139,27 +9129,27 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="21">
       <c r="B8" s="77" t="s">
         <v>1</v>
       </c>
@@ -9167,7 +9157,7 @@
       <c r="D8" s="78"/>
       <c r="E8" s="79"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="15.75">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -9181,7 +9171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="5">
         <v>45497</v>
       </c>
@@ -9196,7 +9186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="5">
         <v>45499</v>
       </c>
@@ -9210,7 +9200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="45">
       <c r="B12" s="5">
         <v>45500</v>
       </c>
@@ -9224,7 +9214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="60">
       <c r="B13" s="5">
         <v>45503</v>
       </c>
@@ -9238,7 +9228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="5">
         <v>45505</v>
       </c>
@@ -9252,7 +9242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="5">
         <v>45509</v>
       </c>
@@ -9266,7 +9256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="5">
         <v>45511</v>
       </c>
@@ -9280,7 +9270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30">
       <c r="B17" s="5">
         <v>45512</v>
       </c>
@@ -9294,7 +9284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="5">
         <v>45512</v>
       </c>
@@ -9308,7 +9298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="30">
       <c r="B19" s="5">
         <v>45543</v>
       </c>
@@ -9322,7 +9312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="45">
       <c r="B20" s="5">
         <v>45578</v>
       </c>
@@ -9336,7 +9326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="45">
       <c r="B21" s="5">
         <v>45585</v>
       </c>
@@ -9350,7 +9340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="5">
         <v>45586</v>
       </c>
@@ -9364,7 +9354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="30">
       <c r="B23" s="5">
         <v>45591</v>
       </c>
@@ -9378,7 +9368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="120">
       <c r="B24" s="5">
         <v>45592</v>
       </c>
@@ -9392,7 +9382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="30">
       <c r="B25" s="5">
         <v>45593</v>
       </c>
@@ -9406,7 +9396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="30">
       <c r="B26" s="5">
         <v>45596</v>
       </c>
@@ -9420,7 +9410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="30">
       <c r="B27" s="5">
         <v>45598</v>
       </c>
@@ -9434,7 +9424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="5">
         <v>45599</v>
       </c>
@@ -9448,7 +9438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="60">
       <c r="B29" s="5">
         <v>45600</v>
       </c>
@@ -9462,7 +9452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="45">
       <c r="B30" s="5">
         <v>45601</v>
       </c>
@@ -9476,7 +9466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="30">
       <c r="B31" s="5">
         <v>45602</v>
       </c>
@@ -9490,7 +9480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="5">
         <v>45603</v>
       </c>
@@ -9504,7 +9494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="5">
         <v>45604</v>
       </c>
@@ -9518,7 +9508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="45">
       <c r="B34" s="5">
         <v>45605</v>
       </c>
@@ -9532,7 +9522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="60">
       <c r="B35" s="5">
         <v>45606</v>
       </c>
@@ -9546,7 +9536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="5">
         <v>45606</v>
       </c>
@@ -9560,7 +9550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="60">
       <c r="B37" s="5">
         <v>45607</v>
       </c>
@@ -9574,7 +9564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="45">
       <c r="B38" s="5">
         <v>45610</v>
       </c>
@@ -9588,7 +9578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="45">
       <c r="B39" s="5">
         <v>45619</v>
       </c>
@@ -9602,7 +9592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="30">
       <c r="B40" s="5">
         <v>45620</v>
       </c>
@@ -9616,7 +9606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="30">
       <c r="B41" s="5">
         <v>45620</v>
       </c>
@@ -9630,7 +9620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="30">
       <c r="B42" s="5">
         <v>45621</v>
       </c>
@@ -9644,7 +9634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="30">
       <c r="B43" s="5">
         <v>45621</v>
       </c>
@@ -9658,7 +9648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="51">
         <v>45640</v>
       </c>
@@ -9672,7 +9662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="5">
         <v>45649</v>
       </c>
@@ -9686,7 +9676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="30">
       <c r="B46" s="5">
         <v>45652</v>
       </c>
@@ -9700,7 +9690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" s="5">
         <v>45652</v>
       </c>
@@ -9714,7 +9704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="5">
         <v>45652</v>
       </c>
@@ -9728,7 +9718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="30">
       <c r="B49" s="5">
         <v>45653</v>
       </c>
@@ -9742,7 +9732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="5">
         <v>45654</v>
       </c>
@@ -9756,7 +9746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="5">
         <v>45656</v>
       </c>
@@ -9770,7 +9760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" s="5">
         <v>45658</v>
       </c>
@@ -9784,7 +9774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="5">
         <v>45690</v>
       </c>
@@ -9798,7 +9788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="30">
       <c r="B54" s="5">
         <v>45659</v>
       </c>
@@ -9812,7 +9802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="5">
         <v>45661</v>
       </c>
@@ -9826,7 +9816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="5">
         <v>45662</v>
       </c>
@@ -9840,7 +9830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="5">
         <v>45783</v>
       </c>
@@ -9854,7 +9844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" s="5">
         <v>45665</v>
       </c>
@@ -9868,7 +9858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="30">
       <c r="B59" s="5">
         <v>45669</v>
       </c>
@@ -9882,7 +9872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="5">
         <v>45670</v>
       </c>
@@ -9896,7 +9886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" ht="45">
       <c r="B61" s="5">
         <v>45672</v>
       </c>
@@ -9910,7 +9900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="B62" s="5">
         <v>45677</v>
       </c>
@@ -9924,7 +9914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="B63" s="5">
         <v>45683</v>
       </c>
@@ -9938,7 +9928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="B64" s="5">
         <v>45687</v>
       </c>
@@ -9952,7 +9942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" ht="30">
       <c r="B65" s="5">
         <v>45692</v>
       </c>
@@ -9966,7 +9956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" s="5">
         <v>45693</v>
       </c>
@@ -9980,7 +9970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" s="5">
         <v>45695</v>
       </c>
@@ -9994,7 +9984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" ht="75">
       <c r="B68" s="69">
         <v>45708</v>
       </c>
@@ -10008,7 +9998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5">
       <c r="B69" s="5">
         <v>45709</v>
       </c>
@@ -10022,7 +10012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="60">
       <c r="B70" s="5">
         <v>45710</v>
       </c>
@@ -10036,7 +10026,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" ht="30">
       <c r="B71" s="5">
         <v>45711</v>
       </c>
@@ -10050,7 +10040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5">
       <c r="B72" s="5">
         <v>45711</v>
       </c>
@@ -10064,7 +10054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" ht="30">
       <c r="B73" s="5">
         <v>45715</v>
       </c>
@@ -10075,7 +10065,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10087,17 +10077,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FE79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="AT50" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BC51" sqref="BC51"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
       <selection pane="topRight" activeCell="AU4" sqref="AU4"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
-      <selection pane="bottomRight" activeCell="BC51" sqref="BC51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
@@ -10163,108 +10153,108 @@
     <col min="161" max="161" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:161" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D1" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="89" t="s">
+    <row r="1" spans="2:161" ht="33.75">
+      <c r="D1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="BN1" s="89"/>
-      <c r="BO1" s="89"/>
-      <c r="BP1" s="89"/>
-      <c r="BQ1" s="89"/>
-      <c r="BR1" s="89"/>
-      <c r="BS1" s="89"/>
-      <c r="BT1" s="89"/>
-      <c r="BU1" s="89"/>
-      <c r="BV1" s="89"/>
-      <c r="BW1" s="89"/>
-      <c r="BX1" s="89"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CG1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="89"/>
-      <c r="CL1" s="89"/>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CO1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
+      <c r="BM1" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN1" s="86"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
+      <c r="BQ1" s="86"/>
+      <c r="BR1" s="86"/>
+      <c r="BS1" s="86"/>
+      <c r="BT1" s="86"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
+      <c r="BW1" s="86"/>
+      <c r="BX1" s="86"/>
+      <c r="BY1" s="86"/>
+      <c r="BZ1" s="86"/>
+      <c r="CA1" s="86"/>
+      <c r="CB1" s="86"/>
+      <c r="CC1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
+      <c r="CG1" s="86"/>
+      <c r="CH1" s="86"/>
+      <c r="CI1" s="86"/>
+      <c r="CJ1" s="86"/>
+      <c r="CK1" s="86"/>
+      <c r="CL1" s="86"/>
+      <c r="CM1" s="86"/>
+      <c r="CN1" s="86"/>
+      <c r="CO1" s="86"/>
+      <c r="CP1" s="86"/>
+      <c r="CQ1" s="86"/>
+      <c r="CR1" s="86"/>
+      <c r="CS1" s="86"/>
+      <c r="CT1" s="86"/>
+      <c r="CU1" s="86"/>
+      <c r="CV1" s="86"/>
       <c r="CW1" s="37"/>
       <c r="CX1" s="37"/>
       <c r="CY1" s="37"/>
@@ -10274,40 +10264,40 @@
       <c r="DC1" s="37"/>
       <c r="DD1" s="37"/>
       <c r="DE1" s="37"/>
-      <c r="DF1" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="DG1" s="89"/>
-      <c r="DH1" s="89"/>
-      <c r="DI1" s="89"/>
-      <c r="DJ1" s="89"/>
-      <c r="DK1" s="89"/>
-      <c r="DL1" s="89"/>
-      <c r="DM1" s="89"/>
-      <c r="DN1" s="89"/>
-      <c r="DO1" s="89"/>
-      <c r="DP1" s="89"/>
-      <c r="DQ1" s="89"/>
-      <c r="DR1" s="89"/>
-      <c r="DS1" s="89"/>
-      <c r="DT1" s="89"/>
-      <c r="DU1" s="89"/>
-      <c r="DV1" s="89"/>
-      <c r="DW1" s="89"/>
-      <c r="DX1" s="89"/>
-      <c r="DY1" s="89"/>
-      <c r="DZ1" s="89"/>
-      <c r="EA1" s="89"/>
-      <c r="EB1" s="89"/>
-      <c r="EC1" s="89"/>
-      <c r="ED1" s="89"/>
-      <c r="EE1" s="89"/>
-      <c r="EF1" s="89"/>
-      <c r="EG1" s="89"/>
-      <c r="EH1" s="89"/>
-      <c r="EI1" s="89"/>
-      <c r="EJ1" s="89"/>
-      <c r="EK1" s="89"/>
+      <c r="DF1" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="DG1" s="86"/>
+      <c r="DH1" s="86"/>
+      <c r="DI1" s="86"/>
+      <c r="DJ1" s="86"/>
+      <c r="DK1" s="86"/>
+      <c r="DL1" s="86"/>
+      <c r="DM1" s="86"/>
+      <c r="DN1" s="86"/>
+      <c r="DO1" s="86"/>
+      <c r="DP1" s="86"/>
+      <c r="DQ1" s="86"/>
+      <c r="DR1" s="86"/>
+      <c r="DS1" s="86"/>
+      <c r="DT1" s="86"/>
+      <c r="DU1" s="86"/>
+      <c r="DV1" s="86"/>
+      <c r="DW1" s="86"/>
+      <c r="DX1" s="86"/>
+      <c r="DY1" s="86"/>
+      <c r="DZ1" s="86"/>
+      <c r="EA1" s="86"/>
+      <c r="EB1" s="86"/>
+      <c r="EC1" s="86"/>
+      <c r="ED1" s="86"/>
+      <c r="EE1" s="86"/>
+      <c r="EF1" s="86"/>
+      <c r="EG1" s="86"/>
+      <c r="EH1" s="86"/>
+      <c r="EI1" s="86"/>
+      <c r="EJ1" s="86"/>
+      <c r="EK1" s="86"/>
       <c r="EL1" s="37"/>
       <c r="EM1" s="37"/>
       <c r="EN1" s="37"/>
@@ -10324,395 +10314,395 @@
       <c r="EY1" s="37"/>
       <c r="EZ1" s="37"/>
     </row>
-    <row r="2" spans="2:161" ht="104.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:161" ht="104.25" customHeight="1">
       <c r="B2" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="91"/>
+      <c r="P2" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T2" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U2" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V2" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W2" s="73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X2" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC2" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="93"/>
+      <c r="AD2" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="90"/>
       <c r="AG2" s="68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH2" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="90" t="s">
+      <c r="AI2" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="91"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="88"/>
       <c r="AO2" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP2" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AQ2" s="93"/>
+      <c r="AP2" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" s="90"/>
       <c r="AR2" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AT2" s="93"/>
+      <c r="AS2" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="90"/>
       <c r="AU2" s="66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AV2" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" s="66" t="s">
+      <c r="AZ2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" s="66" t="s">
+      <c r="BA2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AY2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ2" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA2" s="66" t="s">
-        <v>111</v>
-      </c>
       <c r="BB2" s="66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BC2" s="66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BD2" s="68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BF2" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BG2" s="68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BH2" s="68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BI2" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BJ2" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BK2" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL2" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BM2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="BN2" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="82" t="s">
+      <c r="BN2" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="82" t="s">
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="BS2" s="81"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS2" s="82"/>
       <c r="BT2" s="35"/>
       <c r="BU2" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BV2" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW2" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BX2" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BY2" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BZ2" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CA2" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CB2" s="34"/>
-      <c r="CC2" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="CD2" s="96"/>
-      <c r="CE2" s="97"/>
-      <c r="CF2" s="80" t="s">
+      <c r="CC2" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CG2" s="96"/>
-      <c r="CH2" s="97"/>
-      <c r="CI2" s="80" t="s">
+      <c r="CD2" s="84"/>
+      <c r="CE2" s="85"/>
+      <c r="CF2" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="CJ2" s="96"/>
-      <c r="CK2" s="97"/>
+      <c r="CG2" s="84"/>
+      <c r="CH2" s="85"/>
+      <c r="CI2" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ2" s="84"/>
+      <c r="CK2" s="85"/>
       <c r="CL2" s="36"/>
       <c r="CM2" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CN2" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO2" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP2" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CQ2" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR2" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CS2" s="36"/>
       <c r="CT2" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CU2" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CV2" s="36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CW2" s="36"/>
       <c r="CX2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY2" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ2" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA2" s="82"/>
+      <c r="DB2" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="DC2" s="82"/>
+      <c r="DD2" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE2" s="82"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="DH2" s="82"/>
+      <c r="DI2" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ2" s="82"/>
+      <c r="DK2" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="DL2" s="82"/>
+      <c r="DM2" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DN2" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="DO2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="DP2" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="DQ2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="DR2" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="DT2" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="DU2" s="81"/>
+      <c r="DV2" s="82"/>
+      <c r="DW2" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="DX2" s="81"/>
+      <c r="DY2" s="82"/>
+      <c r="DZ2" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="EA2" s="81"/>
+      <c r="EB2" s="82"/>
+      <c r="EC2" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED2" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE2" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF2" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG2" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI2" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ2" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK2" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="CY2" s="36" t="s">
+      <c r="EL2" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="CZ2" s="82" t="s">
+      <c r="EM2" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="DA2" s="81"/>
-      <c r="DB2" s="82" t="s">
+      <c r="EN2" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="DC2" s="81"/>
-      <c r="DD2" s="82" t="s">
+      <c r="EO2" s="82"/>
+      <c r="EP2" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="DE2" s="81"/>
-      <c r="DF2" s="43"/>
-      <c r="DG2" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="DN2" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="DO2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="DP2" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="DQ2" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="DR2" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="DS2" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT2" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="DU2" s="83"/>
-      <c r="DV2" s="81"/>
-      <c r="DW2" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="DX2" s="83"/>
-      <c r="DY2" s="81"/>
-      <c r="DZ2" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="EA2" s="83"/>
-      <c r="EB2" s="81"/>
-      <c r="EC2" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="ED2" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="EE2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="EF2" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="EG2" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="EH2" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="EI2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="EJ2" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="EK2" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="EL2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="EM2" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="EN2" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="EO2" s="81"/>
-      <c r="EP2" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="EQ2" s="81"/>
-      <c r="ER2" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="ES2" s="81"/>
-      <c r="ET2" s="80" t="s">
+      <c r="EQ2" s="82"/>
+      <c r="ER2" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="EU2" s="96"/>
-      <c r="EV2" s="96"/>
-      <c r="EW2" s="96"/>
-      <c r="EX2" s="96"/>
-      <c r="EY2" s="96"/>
-      <c r="EZ2" s="97"/>
+      <c r="ES2" s="82"/>
+      <c r="ET2" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="EU2" s="84"/>
+      <c r="EV2" s="84"/>
+      <c r="EW2" s="84"/>
+      <c r="EX2" s="84"/>
+      <c r="EY2" s="84"/>
+      <c r="EZ2" s="85"/>
       <c r="FA2" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="FB2" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="FC2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="FD2" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="FE2" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:161" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:161" ht="26.25">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -10728,13 +10718,13 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
@@ -10748,56 +10738,56 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK3" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="AK3" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN3" s="85"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN3" s="94"/>
       <c r="AO3" s="14"/>
       <c r="AP3" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AQ3" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AR3" s="14"/>
       <c r="AS3" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU3" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="86" t="s">
+      <c r="AU3" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="88"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="97"/>
+      <c r="AY3" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="97"/>
       <c r="BC3" s="14"/>
       <c r="BD3" s="14"/>
       <c r="BE3" s="14"/>
@@ -10809,14 +10799,14 @@
       <c r="BK3" s="14"/>
       <c r="BL3" s="14"/>
       <c r="BM3" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="81"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="81"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="81"/>
+        <v>169</v>
+      </c>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="82"/>
       <c r="BT3" s="35"/>
       <c r="BU3" s="36">
         <v>0.25</v>
@@ -10840,21 +10830,21 @@
         <v>0.05</v>
       </c>
       <c r="CB3" s="34"/>
-      <c r="CC3" s="82">
+      <c r="CC3" s="80">
         <v>0.15</v>
       </c>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="81"/>
-      <c r="CF3" s="82">
+      <c r="CD3" s="81"/>
+      <c r="CE3" s="82"/>
+      <c r="CF3" s="80">
         <v>0.15</v>
       </c>
-      <c r="CG3" s="83"/>
-      <c r="CH3" s="81"/>
-      <c r="CI3" s="82">
+      <c r="CG3" s="81"/>
+      <c r="CH3" s="82"/>
+      <c r="CI3" s="80">
         <v>0.15</v>
       </c>
-      <c r="CJ3" s="83"/>
-      <c r="CK3" s="81"/>
+      <c r="CJ3" s="81"/>
+      <c r="CK3" s="82"/>
       <c r="CL3" s="36"/>
       <c r="CM3" s="36">
         <v>0.1</v>
@@ -10933,24 +10923,24 @@
       <c r="EQ3" s="36"/>
       <c r="ER3" s="36"/>
       <c r="ES3" s="36"/>
-      <c r="ET3" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="EU3" s="81"/>
+      <c r="ET3" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="EU3" s="82"/>
       <c r="EV3" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EW3" s="36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="EX3" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EY3" s="36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="EZ3" s="36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FA3" s="16"/>
       <c r="FB3" s="16"/>
@@ -10958,7 +10948,7 @@
       <c r="FD3" s="16"/>
       <c r="FE3" s="16"/>
     </row>
-    <row r="4" spans="2:161" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:161" ht="26.25">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -11023,86 +11013,86 @@
       <c r="BK4" s="14"/>
       <c r="BL4" s="14"/>
       <c r="BM4" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN4" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="82" t="s">
+      <c r="BN4" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS4" s="81"/>
+      <c r="BO4" s="82"/>
+      <c r="BP4" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ4" s="82"/>
+      <c r="BR4" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="BS4" s="82"/>
       <c r="BT4" s="35"/>
       <c r="BU4" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BV4" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW4" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BX4" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BY4" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="BZ4" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="BZ4" s="36" t="s">
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="82"/>
+      <c r="CF4" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="CA4" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="CD4" s="83"/>
-      <c r="CE4" s="81"/>
-      <c r="CF4" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG4" s="83"/>
-      <c r="CH4" s="81"/>
-      <c r="CI4" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="CJ4" s="83"/>
-      <c r="CK4" s="81"/>
+      <c r="CG4" s="81"/>
+      <c r="CH4" s="82"/>
+      <c r="CI4" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ4" s="81"/>
+      <c r="CK4" s="82"/>
       <c r="CL4" s="36"/>
       <c r="CM4" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN4" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO4" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR4" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="CQ4" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="CR4" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="CS4" s="36"/>
       <c r="CT4" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CU4" s="36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CV4" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CW4" s="36"/>
       <c r="CX4" s="36"/>
@@ -11154,10 +11144,10 @@
       <c r="ER4" s="36"/>
       <c r="ES4" s="36"/>
       <c r="ET4" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EU4" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EV4" s="36"/>
       <c r="EW4" s="36"/>
@@ -11170,7 +11160,7 @@
       <c r="FD4" s="16"/>
       <c r="FE4" s="16"/>
     </row>
-    <row r="5" spans="2:161" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:161" ht="76.5">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11235,106 +11225,106 @@
       <c r="BK5" s="14"/>
       <c r="BL5" s="14"/>
       <c r="BM5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="BN5" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="BO5" s="81"/>
-      <c r="BP5" s="82" t="s">
+      <c r="BN5" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="BQ5" s="81"/>
-      <c r="BR5" s="82" t="s">
+      <c r="BO5" s="82"/>
+      <c r="BP5" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="BS5" s="81"/>
+      <c r="BQ5" s="82"/>
+      <c r="BR5" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS5" s="82"/>
       <c r="BT5" s="35"/>
       <c r="BU5" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BV5" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BW5" s="36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BX5" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BY5" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BZ5" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CA5" s="67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CB5" s="34"/>
-      <c r="CC5" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="CD5" s="83"/>
-      <c r="CE5" s="81"/>
-      <c r="CF5" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="CG5" s="83"/>
-      <c r="CH5" s="81"/>
-      <c r="CI5" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="CJ5" s="83"/>
-      <c r="CK5" s="81"/>
+      <c r="CC5" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD5" s="81"/>
+      <c r="CE5" s="82"/>
+      <c r="CF5" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG5" s="81"/>
+      <c r="CH5" s="82"/>
+      <c r="CI5" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ5" s="81"/>
+      <c r="CK5" s="82"/>
       <c r="CL5" s="36"/>
       <c r="CM5" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN5" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO5" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="CP5" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="CQ5" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="CN5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="CO5" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="CP5" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ5" s="36" t="s">
-        <v>195</v>
-      </c>
       <c r="CR5" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CS5" s="36"/>
       <c r="CT5" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CU5" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CV5" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CW5" s="36"/>
       <c r="CX5" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CY5" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="CZ5" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="DA5" s="81"/>
-      <c r="DB5" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="DC5" s="81"/>
-      <c r="DD5" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="DE5" s="81"/>
+      <c r="CZ5" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA5" s="82"/>
+      <c r="DB5" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="DC5" s="82"/>
+      <c r="DD5" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="DE5" s="82"/>
       <c r="DF5" s="36"/>
       <c r="DG5" s="36"/>
       <c r="DH5" s="36"/>
@@ -11388,7 +11378,7 @@
       <c r="FD5" s="16"/>
       <c r="FE5" s="16"/>
     </row>
-    <row r="6" spans="2:161" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:161" ht="26.25">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -11425,16 +11415,16 @@
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="AM6" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="AN6" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO6" s="14"/>
       <c r="AP6" s="14"/>
@@ -11461,148 +11451,148 @@
       <c r="BK6" s="14"/>
       <c r="BL6" s="14"/>
       <c r="BM6" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BN6" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BO6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP6" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="BP6" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="BQ6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR6" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="BR6" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="BS6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT6" s="36"/>
       <c r="BU6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BV6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BW6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BX6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BY6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BZ6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CA6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CB6" s="36"/>
       <c r="CC6" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CD6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="CE6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="CF6" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="CE6" s="36" t="s">
+      <c r="CG6" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="CF6" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="CG6" s="36" t="s">
+      <c r="CH6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="CJ6" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="CH6" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="CI6" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ6" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="CK6" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CL6" s="36"/>
       <c r="CM6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CN6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CO6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CP6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CQ6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CR6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CS6" s="36"/>
       <c r="CT6" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CU6" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CV6" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CW6" s="36"/>
       <c r="CX6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CY6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CZ6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DA6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DB6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DC6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DD6" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DE6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DF6" s="36"/>
       <c r="DG6" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DH6" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DI6" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DJ6" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DK6" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DL6" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DM6" s="36"/>
       <c r="DN6" s="36"/>
@@ -11650,15 +11640,15 @@
       <c r="FD6" s="16"/>
       <c r="FE6" s="16"/>
     </row>
-    <row r="7" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:161" ht="18.75">
       <c r="B7" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C7" s="18">
         <v>328.17938165814218</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E7" s="17">
         <v>0.76860003170475877</v>
@@ -11721,7 +11711,7 @@
         <v>1.8</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB7" s="17">
         <v>2.2440792753251086</v>
@@ -11927,20 +11917,20 @@
       </c>
       <c r="FB7" s="30"/>
       <c r="FC7" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FD7" s="20"/>
       <c r="FE7" s="20"/>
     </row>
-    <row r="8" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:161" ht="18.75">
       <c r="B8" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C8" s="18">
         <v>328.17951188436581</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" s="17">
         <v>0.76860001925876253</v>
@@ -12003,7 +11993,7 @@
         <v>1.8756495043131212</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB8" s="17">
         <v>2.2917771423978177</v>
@@ -12209,20 +12199,20 @@
       </c>
       <c r="FB8" s="30"/>
       <c r="FC8" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FD8" s="20"/>
       <c r="FE8" s="20"/>
     </row>
-    <row r="9" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:161" ht="35.25">
       <c r="B9" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="18">
         <v>328.17951188121714</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E9" s="17">
         <v>0.76860001925870514</v>
@@ -12291,7 +12281,7 @@
         <v>1.8755999999999999</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB9" s="17">
         <v>2.2926130129401434</v>
@@ -12340,7 +12330,7 @@
       </c>
       <c r="BE9" s="19"/>
       <c r="BF9" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG9" s="18">
         <v>1</v>
@@ -12537,22 +12527,22 @@
         <v>45711.375694444447</v>
       </c>
       <c r="FC9" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FD9" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="FE9" s="20"/>
     </row>
-    <row r="10" spans="2:161" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:161" ht="45.75">
       <c r="B10" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" s="18">
         <v>104.85629416749003</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E10" s="17">
         <v>0.74843090357355935</v>
@@ -12611,7 +12601,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB10" s="17">
         <v>0.97842355774463197</v>
@@ -12869,22 +12859,22 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC10" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="FD10" s="21"/>
       <c r="FE10" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="11" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:161" ht="30.75">
       <c r="B11" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="18">
         <v>104.85629432410971</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E11" s="17">
         <v>0.74843090338799267</v>
@@ -12951,7 +12941,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB11" s="17">
         <v>0.9784203857317435</v>
@@ -13209,24 +13199,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC11" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="FD11" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="FE11" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="FD11" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="FE11" s="20" t="s">
-        <v>223</v>
-      </c>
     </row>
-    <row r="12" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:161" ht="30.75">
       <c r="B12" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" s="18">
         <v>104.85629432410971</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="17">
         <v>0.74843090338799267</v>
@@ -13293,7 +13283,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB12" s="17">
         <v>0.9784203857317435</v>
@@ -13569,24 +13559,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC12" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="FD12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="FE12" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="FD12" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="FE12" s="20" t="s">
-        <v>223</v>
-      </c>
     </row>
-    <row r="13" spans="2:161" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:161" ht="45.75">
       <c r="B13" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" s="18">
         <v>104.85629432410735</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E13" s="17">
         <v>0.74843090338798601</v>
@@ -13655,7 +13645,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB13" s="17">
         <v>0.97834984918270429</v>
@@ -13748,7 +13738,7 @@
         <v>10</v>
       </c>
       <c r="BF13" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG13" s="18">
         <v>1</v>
@@ -13963,20 +13953,20 @@
         <v>45711.375694444447</v>
       </c>
       <c r="FC13" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="FD13" s="21"/>
       <c r="FE13" s="20"/>
     </row>
-    <row r="14" spans="2:161" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:161" ht="60.75">
       <c r="B14" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" s="18">
         <v>106.78563163867918</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E14" s="17">
         <v>0.64489233592716244</v>
@@ -14033,7 +14023,7 @@
         <v>1.8</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
@@ -14287,24 +14277,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC14" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="FD14" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="FE14" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="2:161" ht="30.75">
+      <c r="B15" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="FD14" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="FE14" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="C15" s="18">
         <v>106.78563163867918</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E15" s="17">
         <v>0.64489233592716244</v>
@@ -14365,7 +14355,7 @@
         <v>1.8</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
@@ -14637,22 +14627,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC15" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="FD15" s="21"/>
       <c r="FE15" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="16" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:161" ht="30.75">
       <c r="B16" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C16" s="18">
         <v>84.557196574735258</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E16" s="17">
         <v>0.79067346276678263</v>
@@ -14707,7 +14697,7 @@
         <v>1.0013943891294859</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB16" s="17">
         <v>0.90660754519471864</v>
@@ -14955,24 +14945,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC16" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="FD16" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="FE16" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:161" ht="30.75">
       <c r="B17" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17" s="18">
         <v>98.766748006790237</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E17" s="17">
         <v>0.74180396263107196</v>
@@ -15035,7 +15025,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA17" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB17" s="17">
         <v>0.92712879083114275</v>
@@ -15293,22 +15283,22 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC17" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="FD17" s="21"/>
       <c r="FE17" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:161" ht="30.75">
       <c r="B18" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" s="18">
         <v>98.766748006790237</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E18" s="17">
         <v>0.74180396263107196</v>
@@ -15375,7 +15365,7 @@
         <v>1.0704063290080656</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB18" s="17">
         <v>0.92712879083114275</v>
@@ -15651,22 +15641,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC18" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="FD18" s="21"/>
       <c r="FE18" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:161" ht="30.75">
       <c r="B19" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C19" s="18">
         <v>74.389483473147408</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E19" s="17">
         <v>0.70073269723745779</v>
@@ -15729,7 +15719,7 @@
         <v>0.6940626293912302</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB19" s="17">
         <v>0.6851291173950923</v>
@@ -15991,24 +15981,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="FD19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="FE19" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="2:161" ht="30.75">
+      <c r="B20" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="FD19" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="FE19" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="C20" s="18">
         <v>74.389483473147408</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E20" s="17">
         <v>0.70073269723745779</v>
@@ -16075,7 +16065,7 @@
         <v>0.6940626293912302</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB20" s="17">
         <v>0.6851291173950923</v>
@@ -16355,24 +16345,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC20" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="FD20" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="FE20" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="21" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:161" ht="18.75">
       <c r="B21" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="18">
         <v>93.413852034066807</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" s="17">
         <v>0.75350451703625687</v>
@@ -16427,7 +16417,7 @@
         <v>1.0855263158682171</v>
       </c>
       <c r="AA21" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB21" s="17">
         <v>0.93870800274258803</v>
@@ -16703,22 +16693,22 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC21" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="FD21" s="21"/>
       <c r="FE21" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="22" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:161" ht="18.75">
       <c r="B22" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="18">
         <v>93.413852034066807</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E22" s="17">
         <v>0.75350451703625687</v>
@@ -16777,7 +16767,7 @@
         <v>1.0855263158682171</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB22" s="17">
         <v>0.93870800274258803</v>
@@ -17071,22 +17061,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC22" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="FD22" s="21"/>
       <c r="FE22" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="23" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:161" ht="18.75">
       <c r="B23" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="18">
         <v>100.77867280071902</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E23" s="17">
         <v>0.74678264279223061</v>
@@ -17149,7 +17139,7 @@
         <v>1.1394193686414804</v>
       </c>
       <c r="AA23" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB23" s="17">
         <v>1.0003436309765141</v>
@@ -17407,22 +17397,22 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC23" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="FD23" s="21"/>
       <c r="FE23" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="24" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:161" ht="18.75">
       <c r="B24" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="18">
         <v>100.77867280071902</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E24" s="17">
         <v>0.74678264279223061</v>
@@ -17489,7 +17479,7 @@
         <v>1.1394193686414804</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB24" s="17">
         <v>1.0003436309765141</v>
@@ -17765,22 +17755,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC24" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="FD24" s="21"/>
       <c r="FE24" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="25" spans="2:161" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:161" ht="24">
       <c r="B25" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C25" s="18">
         <v>95.758960334958545</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E25" s="17">
         <v>0.74998119382876527</v>
@@ -17839,7 +17829,7 @@
         <v>1.0155384349767136</v>
       </c>
       <c r="AA25" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="17">
         <v>0.8987434450641909</v>
@@ -18115,24 +18105,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC25" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="FD25" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="FE25" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:161" ht="24">
+      <c r="B26" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="FD25" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="FE25" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="2:161" ht="24" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="C26" s="18">
         <v>95.758960334958545</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E26" s="17">
         <v>0.74998119382876527</v>
@@ -18191,7 +18181,7 @@
         <v>1.0155384349767136</v>
       </c>
       <c r="AA26" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB26" s="17">
         <v>0.8987434450641909</v>
@@ -18485,24 +18475,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC26" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FD26" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FE26" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="27" spans="2:161" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:161" ht="24">
       <c r="B27" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="18">
         <v>95.01087219359809</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E27" s="17">
         <v>0.7514256510801034</v>
@@ -18557,7 +18547,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA27" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB27" s="17">
         <v>0.89824698190112162</v>
@@ -18815,24 +18805,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC27" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FD27" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FE27" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:161" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:161" ht="24">
       <c r="B28" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="18">
         <v>95.01087219359809</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E28" s="17">
         <v>0.7514256510801034</v>
@@ -18891,7 +18881,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB28" s="17">
         <v>0.89824698190112162</v>
@@ -19167,18 +19157,18 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC28" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FD28" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FE28" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="29" spans="2:161" ht="57.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:161" ht="57.75">
       <c r="B29" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="18">
         <v>106.209389944555</v>
@@ -19392,15 +19382,15 @@
       <c r="FB29" s="30"/>
       <c r="FC29" s="20"/>
       <c r="FD29" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="FE29" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="30" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:161" ht="30.75">
       <c r="B30" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="18">
         <v>139.474411422217</v>
@@ -19613,22 +19603,22 @@
       </c>
       <c r="FB30" s="30"/>
       <c r="FC30" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="FD30" s="21"/>
       <c r="FE30" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="31" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:161" ht="35.25">
       <c r="B31" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" s="18">
         <v>139.47441142310146</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E31" s="17">
         <v>1.3083945961412604</v>
@@ -19683,7 +19673,7 @@
         <v>1.7218076967044655</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB31" s="17">
         <v>1.5438939416083797</v>
@@ -19921,24 +19911,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC31" s="50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="FD31" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="FE31" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:161" ht="30.75">
       <c r="B32" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C32" s="18">
         <v>139.47441142310146</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E32" s="17">
         <v>1.3083945961412604</v>
@@ -19997,7 +19987,7 @@
         <v>1.7218076967044655</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB32" s="17">
         <v>1.5438939416083797</v>
@@ -20253,16 +20243,16 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC32" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="FD32" s="22"/>
       <c r="FE32" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="33" spans="2:161" ht="80.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:161" ht="80.25">
       <c r="B33" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C33" s="18">
         <v>139.54020742149501</v>
@@ -20483,24 +20473,24 @@
       </c>
       <c r="FB33" s="30"/>
       <c r="FC33" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="FD33" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="FE33" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="2:161" ht="35.25">
+      <c r="B34" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="FD33" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="FE33" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C34" s="18">
         <v>139.54020741119021</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E34" s="17">
         <v>1.3083413579198178</v>
@@ -20563,7 +20553,7 @@
         <v>1.8148270761295129</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB34" s="17">
         <v>1.589552304577686</v>
@@ -20801,24 +20791,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC34" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="FD34" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="FE34" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="35" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:161" ht="35.25">
       <c r="B35" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" s="18">
         <v>139.54020741119021</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E35" s="17">
         <v>1.3083413579198178</v>
@@ -20885,7 +20875,7 @@
         <v>1.8148270761295129</v>
       </c>
       <c r="AA35" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB35" s="17">
         <v>1.589552304577686</v>
@@ -21141,18 +21131,18 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC35" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="FD35" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="FE35" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="36" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:161" ht="18.75">
       <c r="B36" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" s="18">
         <v>51.988558808613703</v>
@@ -21365,22 +21355,22 @@
       </c>
       <c r="FB36" s="30"/>
       <c r="FC36" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FD36" s="20"/>
       <c r="FE36" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:161" ht="35.25">
       <c r="B37" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="18">
         <v>51.988558687011938</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E37" s="17">
         <v>0.92336230951981668</v>
@@ -21439,7 +21429,7 @@
         <v>1.8</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB37" s="17">
         <v>0.98387313338995264</v>
@@ -21681,24 +21671,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC37" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="FD37" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="FE37" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:161" ht="30.75">
+      <c r="B38" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="FD37" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="FE37" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="C38" s="18">
         <v>51.988558566056867</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38" s="17">
         <v>0.92336230860157775</v>
@@ -21765,7 +21755,7 @@
         <v>0.92802869314283321</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB38" s="17">
         <v>0.66625539657871224</v>
@@ -22007,22 +21997,22 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC38" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FD38" s="22"/>
       <c r="FE38" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:161" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:161" ht="30.75">
       <c r="B39" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C39" s="18">
         <v>51.988558566056867</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E39" s="17">
         <v>0.92336230860157775</v>
@@ -22089,7 +22079,7 @@
         <v>0.92802869314283321</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB39" s="17">
         <v>0.66625539657871224</v>
@@ -22349,22 +22339,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC39" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FD39" s="22"/>
       <c r="FE39" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="40" spans="2:161" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:161" ht="45.75">
       <c r="B40" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C40" s="18">
         <v>52.824660669522331</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="17">
         <v>0.94216547137537565</v>
@@ -22427,7 +22417,7 @@
         <v>1.8</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB40" s="17">
         <v>0.49255602979446911</v>
@@ -22639,24 +22629,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC40" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="FD40" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="FE40" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:161" ht="45.75">
+      <c r="B41" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="FD40" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="FE40" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="2:161" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="C41" s="18">
         <v>52.824660669522331</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E41" s="17">
         <v>0.94216547137537565</v>
@@ -22723,7 +22713,7 @@
         <v>1.8</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB41" s="17">
         <v>0.49255602979446911</v>
@@ -22953,20 +22943,20 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC41" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="FD41" s="21"/>
       <c r="FE41" s="20"/>
     </row>
-    <row r="42" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:161" ht="18.75">
       <c r="B42" s="33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42" s="18">
         <v>96.422884069086777</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E42" s="17">
         <v>0.75476854023757789</v>
@@ -23021,7 +23011,7 @@
         <v>1.8</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB42" s="17">
         <v>1.2289510793430889</v>
@@ -23235,24 +23225,24 @@
       </c>
       <c r="FB42" s="30"/>
       <c r="FC42" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="FD42" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="FE42" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:161" ht="18.75">
+      <c r="B43" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="FD42" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="FE42" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="C43" s="18">
         <v>96.422875568940796</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E43" s="17">
         <v>0.75476853876649175</v>
@@ -23307,7 +23297,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB43" s="17">
         <v>0.89413188224378937</v>
@@ -23565,24 +23555,24 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC43" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="FD43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="FE43" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:161" ht="18.75">
+      <c r="B44" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="FD43" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="FE43" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="2:161" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="C44" s="18">
         <v>96.422875568940796</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E44" s="17">
         <v>0.75476853876649175</v>
@@ -23641,7 +23631,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA44" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB44" s="17">
         <v>0.89413188224378937</v>
@@ -23917,22 +23907,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC44" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FD44" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="FE44" s="20"/>
     </row>
-    <row r="45" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:161" ht="25.5">
       <c r="B45" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C45" s="18">
         <v>96.879766729849365</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" s="17">
         <v>0.75455086155496398</v>
@@ -23991,7 +23981,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA45" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB45" s="17">
         <v>0.89215906303952097</v>
@@ -24249,22 +24239,22 @@
         <v>45606.370138888888</v>
       </c>
       <c r="FC45" s="50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="FD45" s="21"/>
       <c r="FE45" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="46" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:161" ht="25.5">
       <c r="B46" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C46" s="18">
         <v>96.879759256863764</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E46" s="17">
         <v>0.75455084527075023</v>
@@ -24323,7 +24313,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA46" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB46" s="17">
         <v>0.89215625932100717</v>
@@ -24581,24 +24571,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC46" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="FD46" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="FE46" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:161" ht="25.5">
+      <c r="B47" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="FD46" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="FE46" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="C47" s="18">
         <v>96.879759256863764</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E47" s="17">
         <v>0.75455084527075023</v>
@@ -24657,7 +24647,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB47" s="17">
         <v>0.89215625932100717</v>
@@ -24915,24 +24905,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC47" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="FD47" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="FE47" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:161" ht="25.5">
+      <c r="B48" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="FD47" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="FE47" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="C48" s="18">
         <v>96.879759256863764</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E48" s="17">
         <v>0.75455084527075023</v>
@@ -24991,7 +24981,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA48" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB48" s="17">
         <v>0.89215625932100717</v>
@@ -25249,20 +25239,20 @@
         <v>45652.35833333333</v>
       </c>
       <c r="FC48" s="50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="FD48" s="21"/>
       <c r="FE48" s="20"/>
     </row>
-    <row r="49" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:161" ht="25.5">
       <c r="B49" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C49" s="18">
         <v>96.879759256863764</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E49" s="17">
         <v>0.75455084527075023</v>
@@ -25321,7 +25311,7 @@
         <v>1.0155384349767129</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB49" s="17">
         <v>0.89215625932100717</v>
@@ -25597,24 +25587,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC49" s="50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="FD49" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="FE49" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="50" spans="2:161" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:161" ht="49.5">
       <c r="B50" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C50" s="18">
         <v>96.87560063098519</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E50" s="17">
         <v>0.7545500864480158</v>
@@ -25683,7 +25673,7 @@
         <v>1</v>
       </c>
       <c r="AA50" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB50" s="17">
         <v>0.8839195292950992</v>
@@ -25947,24 +25937,24 @@
         <v>45708.6875</v>
       </c>
       <c r="FC50" s="50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="FD50" s="50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="FE50" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="51" spans="2:161" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:161" ht="37.5">
       <c r="B51" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C51" s="18">
         <v>96.875600630154594</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E51" s="17">
         <v>0.75455008644775445</v>
@@ -26033,7 +26023,7 @@
         <v>1.0155373352218773</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB51" s="17">
         <v>0.89224249496405572</v>
@@ -26126,7 +26116,7 @@
         <v>10</v>
       </c>
       <c r="BF51" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG51" s="18">
         <v>1</v>
@@ -26357,24 +26347,24 @@
         <v>45711.375694444447</v>
       </c>
       <c r="FC51" s="50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FD51" s="50" t="s">
-        <v>404</v>
+        <v>279</v>
       </c>
       <c r="FE51" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="52" spans="2:161" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:161" ht="37.5">
       <c r="B52" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C52" s="18">
         <v>96.875600630154594</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="17">
         <v>0.75455008644775445</v>
@@ -26443,7 +26433,7 @@
         <v>1.0155373352218773</v>
       </c>
       <c r="AA52" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB52" s="17">
         <v>0.89224249496405572</v>
@@ -26536,7 +26526,7 @@
         <v>10</v>
       </c>
       <c r="BF52" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG52" s="18">
         <v>1</v>
@@ -26767,24 +26757,24 @@
         <v>45711.375694444447</v>
       </c>
       <c r="FC52" s="50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FD52" s="50" t="s">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="FE52" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="53" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:161" ht="35.25">
       <c r="B53" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C53" s="18">
         <v>106.21066858447087</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E53" s="17">
         <v>0.87124549452828293</v>
@@ -26843,7 +26833,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA53" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB53" s="17">
         <v>0.90378734079736978</v>
@@ -27115,24 +27105,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC53" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD53" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="FE53" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="54" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:161" ht="35.25">
       <c r="B54" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C54" s="18">
         <v>106.21064752370603</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="17">
         <v>0.87124544715498087</v>
@@ -27191,7 +27181,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA54" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB54" s="17">
         <v>0.90377803734274653</v>
@@ -27463,24 +27453,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC54" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD54" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="FE54" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:161" ht="35.25">
+      <c r="B55" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="FE54" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="C55" s="18">
         <v>106.21064752269048</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E55" s="17">
         <v>0.87124544715292018</v>
@@ -27539,7 +27529,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB55" s="17">
         <v>0.90377803663144163</v>
@@ -27841,22 +27831,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC55" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD55" s="22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="FE55" s="20"/>
     </row>
-    <row r="56" spans="2:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:161" ht="35.25">
       <c r="B56" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C56" s="18">
         <v>106.21064752269048</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E56" s="17">
         <v>0.87124544715292018</v>
@@ -27915,7 +27905,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA56" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB56" s="17">
         <v>0.90377803663144163</v>
@@ -28217,22 +28207,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC56" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD56" s="22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="FE56" s="20"/>
     </row>
-    <row r="57" spans="2:161" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:161" ht="46.5">
       <c r="B57" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C57" s="18">
         <v>106.21064752269048</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E57" s="17">
         <v>0.87124544715292018</v>
@@ -28291,7 +28281,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA57" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB57" s="17">
         <v>0.90377803663144163</v>
@@ -28593,22 +28583,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC57" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD57" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="FE57" s="20"/>
     </row>
-    <row r="58" spans="2:161" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:161" ht="51.75" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C58" s="18">
         <v>56.78664576366117</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E58" s="17">
         <v>0.92345620337771817</v>
@@ -28675,7 +28665,7 @@
         <v>1.8</v>
       </c>
       <c r="AA58" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB58" s="17">
         <v>0.73167813563099748</v>
@@ -28899,24 +28889,24 @@
         <v>45610.205555555556</v>
       </c>
       <c r="FC58" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="FD58" s="50" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="FE58" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="59" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:161" ht="25.5">
       <c r="B59" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C59" s="18">
         <v>56.786438471951776</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E59" s="17">
         <v>0.92345573552826365</v>
@@ -28983,7 +28973,7 @@
         <v>0.76121770102430608</v>
       </c>
       <c r="AA59" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB59" s="17">
         <v>0.41248247995052478</v>
@@ -29239,22 +29229,22 @@
         <v>45652.35833333333</v>
       </c>
       <c r="FC59" s="50" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="FD59" s="21"/>
       <c r="FE59" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="60" spans="2:161" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:161" ht="49.5">
       <c r="B60" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C60" s="18">
         <v>96.518430586720228</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E60" s="17">
         <v>0.75429909819084662</v>
@@ -29321,7 +29311,7 @@
         <v>1.8</v>
       </c>
       <c r="AA60" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB60" s="17">
         <v>1.2252545888050264</v>
@@ -29567,24 +29557,24 @@
         <v>45652.35833333333</v>
       </c>
       <c r="FC60" s="50" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="FD60" s="50" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="FE60" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="61" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:161" ht="25.5">
       <c r="B61" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C61" s="18">
         <v>96.518430586685596</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E61" s="17">
         <v>0.75429909819084295</v>
@@ -29651,7 +29641,7 @@
         <v>1.0155373352218773</v>
       </c>
       <c r="AA61" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB61" s="17">
         <v>0.89144197668190805</v>
@@ -29943,22 +29933,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC61" s="50" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="FD61" s="50" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="FE61" s="20"/>
     </row>
-    <row r="62" spans="2:161" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:161" ht="37.5">
       <c r="B62" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C62" s="18">
         <v>97.083905201422326</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E62" s="17">
         <v>0.75083548693504898</v>
@@ -30025,7 +30015,7 @@
         <v>1</v>
       </c>
       <c r="AA62" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB62" s="17">
         <v>0.9073014474856278</v>
@@ -30221,22 +30211,22 @@
       </c>
       <c r="FB62" s="30"/>
       <c r="FC62" s="50" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="FD62" s="50" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="FE62" s="20"/>
     </row>
-    <row r="63" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:161" ht="25.5">
       <c r="B63" s="10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C63" s="18">
         <v>96.907432437536912</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E63" s="17">
         <v>0.75378681321833485</v>
@@ -30303,7 +30293,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA63" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB63" s="17">
         <v>0.83277571009362761</v>
@@ -30595,20 +30585,20 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC63" s="50" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="FD63" s="50"/>
       <c r="FE63" s="20"/>
     </row>
-    <row r="64" spans="2:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:161" ht="25.5">
       <c r="B64" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C64" s="18">
         <v>96.907443433330315</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E64" s="17">
         <v>0.75378681909396406</v>
@@ -30675,7 +30665,7 @@
         <v>1</v>
       </c>
       <c r="AA64" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB64" s="17">
         <v>0.90472350057650053</v>
@@ -30949,20 +30939,20 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC64" s="50" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="FD64" s="50"/>
       <c r="FE64" s="20"/>
     </row>
-    <row r="65" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:161" ht="25.5">
       <c r="B65" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C65" s="18">
         <v>96.907442602172296</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E65" s="17">
         <v>0.75378681948503623</v>
@@ -31029,7 +31019,7 @@
         <v>1.0855251403215567</v>
       </c>
       <c r="AA65" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB65" s="17">
         <v>0.9499317827576792</v>
@@ -31321,20 +31311,20 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC65" s="50" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="FD65" s="50"/>
       <c r="FE65" s="20"/>
     </row>
-    <row r="66" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:161" ht="25.5">
       <c r="B66" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C66" s="18">
         <v>96.907455060195019</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E66" s="17">
         <v>0.75378682466255587</v>
@@ -31401,7 +31391,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA66" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB66" s="17">
         <v>0.83294973706796249</v>
@@ -31681,24 +31671,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC66" s="50" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="FD66" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="FE66" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:161" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:161" ht="24.75" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C67" s="18">
         <v>96.907455782944709</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E67" s="17">
         <v>0.75378682524622476</v>
@@ -31765,7 +31755,7 @@
         <v>1</v>
       </c>
       <c r="AA67" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB67" s="17">
         <v>0.90479148029917977</v>
@@ -32043,24 +32033,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC67" s="50" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="FD67" s="50" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="FE67" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:161" ht="25.5">
       <c r="B68" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C68" s="18">
         <v>96.907457131479944</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68" s="17">
         <v>0.75378682542871334</v>
@@ -32127,7 +32117,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA68" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB68" s="17">
         <v>0.832953749978533</v>
@@ -32431,22 +32421,22 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC68" s="50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="FD68" s="50"/>
       <c r="FE68" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:161" ht="25.5">
       <c r="B69" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C69" s="18">
         <v>96.907457131479944</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E69" s="17">
         <v>0.75378682542871334</v>
@@ -32515,7 +32505,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA69" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB69" s="17">
         <v>0.832953749978533</v>
@@ -32819,20 +32809,20 @@
         <v>45708.614583333336</v>
       </c>
       <c r="FC69" s="50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="FD69" s="50"/>
       <c r="FE69" s="20"/>
     </row>
-    <row r="70" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:161" ht="25.5">
       <c r="B70" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C70" s="18">
         <v>96.756722837775641</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E70" s="17">
         <v>0.75378682553928922</v>
@@ -32899,7 +32889,7 @@
         <v>1</v>
       </c>
       <c r="AA70" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB70" s="17">
         <v>0.90479112710584941</v>
@@ -33175,24 +33165,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC70" s="50" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="FD70" s="50" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="FE70" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:161" ht="25.5">
       <c r="B71" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C71" s="18">
         <v>96.756724209545567</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E71" s="17">
         <v>0.75378682575429701</v>
@@ -33259,7 +33249,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA71" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB71" s="17">
         <v>0.83295334592118597</v>
@@ -33555,24 +33545,24 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC71" s="50" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="FD71" s="50" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="FE71" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:161" ht="25.5">
       <c r="B72" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C72" s="18">
         <v>96.907453515548227</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E72" s="17">
         <v>0.75378682398714125</v>
@@ -33641,7 +33631,7 @@
         <v>0.87556172502251872</v>
       </c>
       <c r="AA72" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB72" s="17">
         <v>0.83294744284999445</v>
@@ -33945,20 +33935,20 @@
         <v>45708.614583333336</v>
       </c>
       <c r="FC72" s="50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="FD72" s="57"/>
       <c r="FE72" s="58"/>
     </row>
-    <row r="73" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:161" ht="25.5">
       <c r="B73" s="10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C73" s="18">
         <v>106.21106082661092</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E73" s="17">
         <v>0.87124540717235166</v>
@@ -34017,7 +34007,7 @@
         <v>1.0364314340177396</v>
       </c>
       <c r="AA73" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB73" s="17">
         <v>0.90380106362956758</v>
@@ -34319,25 +34309,25 @@
         <v>45658.451041666667</v>
       </c>
       <c r="FC73" s="50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FD73" s="57" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="FE73" s="58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:161" ht="25.5">
       <c r="A74" s="59"/>
       <c r="B74" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C74" s="18">
         <v>100.7638158</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E74" s="17">
         <v>0.84800683499999996</v>
@@ -34396,7 +34386,7 @@
         <v>0.72997416800000003</v>
       </c>
       <c r="AA74" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB74" s="17">
         <v>0.64866968000000003</v>
@@ -34698,24 +34688,24 @@
         <v>45683.570833333331</v>
       </c>
       <c r="FC74" s="50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="FD74" s="50" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="FE74" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:161" ht="25.5">
       <c r="B75" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C75" s="18">
         <v>100.76381575170333</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E75" s="17">
         <v>0.84800683488629214</v>
@@ -34774,7 +34764,7 @@
         <v>0.72997416839822737</v>
       </c>
       <c r="AA75" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB75" s="17">
         <v>0.64866967995439906</v>
@@ -35076,22 +35066,22 @@
         <v>45683.570833333331</v>
       </c>
       <c r="FC75" s="50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="FD75" s="50" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="FE75" s="20"/>
     </row>
-    <row r="76" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:161" ht="25.5">
       <c r="B76" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C76" s="18">
         <v>97.387383369999995</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E76" s="17">
         <v>0.87428000299999997</v>
@@ -35158,7 +35148,7 @@
         <v>0.96024498999999996</v>
       </c>
       <c r="AA76" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB76" s="17">
         <v>0.86612418400000002</v>
@@ -35460,24 +35450,24 @@
         <v>45683.570833333331</v>
       </c>
       <c r="FC76" s="50" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="FD76" s="50" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="FE76" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:161" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:161" ht="25.5">
       <c r="B77" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C77" s="18">
         <v>100.764312</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E77" s="17">
         <v>0.84800711299999998</v>
@@ -35544,7 +35534,7 @@
         <v>0.883488049</v>
       </c>
       <c r="AA77" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB77" s="17">
         <v>0.74698249299999997</v>
@@ -35846,24 +35836,24 @@
         <v>45683.570833333331</v>
       </c>
       <c r="FC77" s="50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="FD77" s="50" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="FE77" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:161" ht="35.25">
       <c r="B78" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C78" s="18">
         <v>96.518430583921841</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" s="17">
         <v>0.75429909818994068</v>
@@ -35932,7 +35922,7 @@
         <v>1</v>
       </c>
       <c r="AA78" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB78" s="17">
         <v>0.8832845073078166</v>
@@ -35981,7 +35971,7 @@
       </c>
       <c r="BE78" s="19"/>
       <c r="BF78" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG78" s="18">
         <v>1</v>
@@ -36216,20 +36206,20 @@
         <v>45711.375694444447</v>
       </c>
       <c r="FC78" s="50" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="FD78" s="50"/>
       <c r="FE78" s="20"/>
     </row>
-    <row r="79" spans="1:161" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:161" ht="35.25">
       <c r="B79" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C79" s="18">
         <v>108.91839844493761</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E79" s="17">
         <v>0.7681772316386225</v>
@@ -36298,7 +36288,7 @@
         <v>1</v>
       </c>
       <c r="AA79" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB79" s="17">
         <v>0.9376382264301325</v>
@@ -36347,7 +36337,7 @@
       </c>
       <c r="BE79" s="19"/>
       <c r="BF79" s="76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG79" s="18">
         <v>1</v>
@@ -36576,55 +36566,17 @@
         <v>10</v>
       </c>
       <c r="FA79" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="FB79" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="FC79" s="50" t="s">
         <v>331</v>
-      </c>
-      <c r="FC79" s="50" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="DW2:DY2"/>
-    <mergeCell ref="ET2:EZ2"/>
-    <mergeCell ref="ET3:EU3"/>
-    <mergeCell ref="DF1:EK1"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="ER2:ES2"/>
-    <mergeCell ref="BM1:CV1"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="D1:BL1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="BN5:BO5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="DB5:DC5"/>
     <mergeCell ref="EN2:EO2"/>
     <mergeCell ref="EP2:EQ2"/>
@@ -36641,6 +36593,44 @@
     <mergeCell ref="DZ2:EB2"/>
     <mergeCell ref="DB2:DC2"/>
     <mergeCell ref="DT2:DV2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BM1:CV1"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="D1:BL1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="DW2:DY2"/>
+    <mergeCell ref="ET2:EZ2"/>
+    <mergeCell ref="ET3:EU3"/>
+    <mergeCell ref="DF1:EK1"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="ER2:ES2"/>
   </mergeCells>
   <conditionalFormatting sqref="BN10:BS28 BN31:BS32 BN34:BS35 BN61:BS61 BN63:BS69 BN72:BS72 CA31:CA32 CA34:CA35 CA37:CA41 CA10:CA28 BN43:BS57 CA43:CA78">
     <cfRule type="expression" dxfId="802" priority="7866">
@@ -39169,113 +39159,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:C18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="118.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" ht="36">
       <c r="B6" s="46" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" ht="36">
       <c r="B7" s="44">
         <v>1</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" ht="36">
       <c r="B8" s="44">
         <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" ht="36">
       <c r="B9" s="44">
         <f t="shared" ref="B9:B17" si="0">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" ht="36">
       <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" ht="36">
       <c r="B11" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" ht="36">
       <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:3" ht="36">
       <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" ht="36">
       <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:3" ht="36">
       <c r="B15" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:3" ht="36">
       <c r="B16" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" ht="36">
       <c r="B17" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" ht="36">
       <c r="B18" s="44">
         <v>1000</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -39319,812 +39309,812 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:D130"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:4" ht="21">
       <c r="C2" s="98" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D2" s="98"/>
     </row>
-    <row r="3" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:4" ht="21">
       <c r="C3" s="47" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4">
       <c r="C4" s="20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="C6" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4">
       <c r="C9" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4">
       <c r="C10" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4">
       <c r="C11" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" ht="30">
       <c r="C12" s="21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" ht="30">
       <c r="C13" s="21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" ht="30">
       <c r="C14" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" ht="30">
       <c r="C15" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4">
       <c r="C16" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="48" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="48" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="48" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="C23" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4">
       <c r="C24" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4">
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="C26" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4">
       <c r="C27" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="C29" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4">
       <c r="C30" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4">
       <c r="C31" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4">
       <c r="C32" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4">
       <c r="C33" s="20" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4">
       <c r="C34" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4">
       <c r="C35" s="20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4">
       <c r="C36" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4">
       <c r="C37" s="48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4">
       <c r="C38" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4">
       <c r="C39" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4">
       <c r="C40" s="48" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4">
       <c r="C41" s="48" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4">
       <c r="C42" s="48" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4">
       <c r="C43" s="48" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4">
       <c r="C44" s="20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4">
       <c r="C45" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4">
       <c r="C46" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4">
       <c r="C47" s="48" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4">
       <c r="C48" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D48" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="20" t="s">
+    <row r="51" spans="3:4">
+      <c r="C51" s="48" t="s">
         <v>397</v>
       </c>
+      <c r="D51" s="20" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>393</v>
+    <row r="52" spans="3:4">
+      <c r="C52" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>395</v>
+    <row r="53" spans="3:4">
+      <c r="C53" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>398</v>
+    <row r="54" spans="3:4">
+      <c r="C54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4">
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4">
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4">
       <c r="C57" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4">
       <c r="C58" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4">
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4">
       <c r="C60" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4">
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4">
       <c r="C62" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4">
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4">
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="C70" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4">
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4">
       <c r="C72" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4">
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4">
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4">
       <c r="C75" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4">
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4">
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4">
       <c r="C78" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4">
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4">
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4">
       <c r="C82" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4">
       <c r="C83" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4">
       <c r="C84" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4">
       <c r="C85" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4">
       <c r="C86" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4">
       <c r="C87" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4">
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4">
       <c r="C89" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4">
       <c r="C90" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4">
       <c r="C91" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4">
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4">
       <c r="C93" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4">
       <c r="C94" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4">
       <c r="C95" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4">
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4">
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4">
       <c r="C98" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4">
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4">
       <c r="C100" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4">
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4">
       <c r="C102" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4">
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4">
       <c r="C104" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D104" s="20"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4">
       <c r="C105" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4">
       <c r="C106" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D106" s="20"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4">
       <c r="C107" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D107" s="20"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4">
       <c r="C108" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D108" s="20"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4">
       <c r="C109" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D109" s="20"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4">
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4">
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4">
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4">
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4">
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4">
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4">
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4">
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4">
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4">
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4">
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4">
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4">
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4">
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4">
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4">
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4">
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4">
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4">
       <c r="C128" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" s="20"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4">
       <c r="C129" s="20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D129" s="20"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4">
       <c r="C130" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D130" s="20"/>
     </row>
@@ -40138,14 +40128,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40378,54 +40366,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D6FAE6-84F9-4089-BDF6-D34A7F4671D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BB4C9F-D40C-4ADC-9BDB-C329A4CCAEE2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08AC2E0-F610-4CCA-BA4E-12143F31CE01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
-    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08AC2E0-F610-4CCA-BA4E-12143F31CE01}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BB4C9F-D40C-4ADC-9BDB-C329A4CCAEE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D6FAE6-84F9-4089-BDF6-D34A7F4671D4}"/>
 </file>
--- a/data/LatticeSummaries.xlsx
+++ b/data/LatticeSummaries.xlsx
@@ -21,10 +21,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summaries!$B$6:$FE$54</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2048,21 +2059,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,19 +2106,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10154,107 +10165,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:161" ht="33.75">
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="86"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="86"/>
-      <c r="BM1" s="86" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="86"/>
-      <c r="BR1" s="86"/>
-      <c r="BS1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
-      <c r="BW1" s="86"/>
-      <c r="BX1" s="86"/>
-      <c r="BY1" s="86"/>
-      <c r="BZ1" s="86"/>
-      <c r="CA1" s="86"/>
-      <c r="CB1" s="86"/>
-      <c r="CC1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="86"/>
-      <c r="CH1" s="86"/>
-      <c r="CI1" s="86"/>
-      <c r="CJ1" s="86"/>
-      <c r="CK1" s="86"/>
-      <c r="CL1" s="86"/>
-      <c r="CM1" s="86"/>
-      <c r="CN1" s="86"/>
-      <c r="CO1" s="86"/>
-      <c r="CP1" s="86"/>
-      <c r="CQ1" s="86"/>
-      <c r="CR1" s="86"/>
-      <c r="CS1" s="86"/>
-      <c r="CT1" s="86"/>
-      <c r="CU1" s="86"/>
-      <c r="CV1" s="86"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="89"/>
+      <c r="BV1" s="89"/>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="89"/>
+      <c r="BY1" s="89"/>
+      <c r="BZ1" s="89"/>
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="89"/>
+      <c r="CC1" s="89"/>
+      <c r="CD1" s="89"/>
+      <c r="CE1" s="89"/>
+      <c r="CF1" s="89"/>
+      <c r="CG1" s="89"/>
+      <c r="CH1" s="89"/>
+      <c r="CI1" s="89"/>
+      <c r="CJ1" s="89"/>
+      <c r="CK1" s="89"/>
+      <c r="CL1" s="89"/>
+      <c r="CM1" s="89"/>
+      <c r="CN1" s="89"/>
+      <c r="CO1" s="89"/>
+      <c r="CP1" s="89"/>
+      <c r="CQ1" s="89"/>
+      <c r="CR1" s="89"/>
+      <c r="CS1" s="89"/>
+      <c r="CT1" s="89"/>
+      <c r="CU1" s="89"/>
+      <c r="CV1" s="89"/>
       <c r="CW1" s="37"/>
       <c r="CX1" s="37"/>
       <c r="CY1" s="37"/>
@@ -10264,40 +10275,40 @@
       <c r="DC1" s="37"/>
       <c r="DD1" s="37"/>
       <c r="DE1" s="37"/>
-      <c r="DF1" s="86" t="s">
+      <c r="DF1" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="DG1" s="86"/>
-      <c r="DH1" s="86"/>
-      <c r="DI1" s="86"/>
-      <c r="DJ1" s="86"/>
-      <c r="DK1" s="86"/>
-      <c r="DL1" s="86"/>
-      <c r="DM1" s="86"/>
-      <c r="DN1" s="86"/>
-      <c r="DO1" s="86"/>
-      <c r="DP1" s="86"/>
-      <c r="DQ1" s="86"/>
-      <c r="DR1" s="86"/>
-      <c r="DS1" s="86"/>
-      <c r="DT1" s="86"/>
-      <c r="DU1" s="86"/>
-      <c r="DV1" s="86"/>
-      <c r="DW1" s="86"/>
-      <c r="DX1" s="86"/>
-      <c r="DY1" s="86"/>
-      <c r="DZ1" s="86"/>
-      <c r="EA1" s="86"/>
-      <c r="EB1" s="86"/>
-      <c r="EC1" s="86"/>
-      <c r="ED1" s="86"/>
-      <c r="EE1" s="86"/>
-      <c r="EF1" s="86"/>
-      <c r="EG1" s="86"/>
-      <c r="EH1" s="86"/>
-      <c r="EI1" s="86"/>
-      <c r="EJ1" s="86"/>
-      <c r="EK1" s="86"/>
+      <c r="DG1" s="89"/>
+      <c r="DH1" s="89"/>
+      <c r="DI1" s="89"/>
+      <c r="DJ1" s="89"/>
+      <c r="DK1" s="89"/>
+      <c r="DL1" s="89"/>
+      <c r="DM1" s="89"/>
+      <c r="DN1" s="89"/>
+      <c r="DO1" s="89"/>
+      <c r="DP1" s="89"/>
+      <c r="DQ1" s="89"/>
+      <c r="DR1" s="89"/>
+      <c r="DS1" s="89"/>
+      <c r="DT1" s="89"/>
+      <c r="DU1" s="89"/>
+      <c r="DV1" s="89"/>
+      <c r="DW1" s="89"/>
+      <c r="DX1" s="89"/>
+      <c r="DY1" s="89"/>
+      <c r="DZ1" s="89"/>
+      <c r="EA1" s="89"/>
+      <c r="EB1" s="89"/>
+      <c r="EC1" s="89"/>
+      <c r="ED1" s="89"/>
+      <c r="EE1" s="89"/>
+      <c r="EF1" s="89"/>
+      <c r="EG1" s="89"/>
+      <c r="EH1" s="89"/>
+      <c r="EI1" s="89"/>
+      <c r="EJ1" s="89"/>
+      <c r="EK1" s="89"/>
       <c r="EL1" s="37"/>
       <c r="EM1" s="37"/>
       <c r="EN1" s="37"/>
@@ -10355,11 +10366,11 @@
       <c r="O2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="88"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="91"/>
       <c r="S2" s="73" t="s">
         <v>90</v>
       </c>
@@ -10393,41 +10404,41 @@
       <c r="AC2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" s="89" t="s">
+      <c r="AD2" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="90"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="93"/>
       <c r="AG2" s="68" t="s">
         <v>102</v>
       </c>
       <c r="AH2" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" s="87" t="s">
+      <c r="AI2" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="87" t="s">
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="88"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="91"/>
       <c r="AO2" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="AP2" s="89" t="s">
+      <c r="AP2" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="90"/>
+      <c r="AQ2" s="93"/>
       <c r="AR2" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AS2" s="89" t="s">
+      <c r="AS2" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="AT2" s="90"/>
+      <c r="AT2" s="93"/>
       <c r="AU2" s="66" t="s">
         <v>110</v>
       </c>
@@ -10485,18 +10496,18 @@
       <c r="BM2" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="BN2" s="80" t="s">
+      <c r="BN2" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="80" t="s">
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="80" t="s">
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="BS2" s="82"/>
+      <c r="BS2" s="81"/>
       <c r="BT2" s="35"/>
       <c r="BU2" s="36" t="s">
         <v>128</v>
@@ -10520,21 +10531,21 @@
         <v>134</v>
       </c>
       <c r="CB2" s="34"/>
-      <c r="CC2" s="83" t="s">
+      <c r="CC2" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="CD2" s="84"/>
-      <c r="CE2" s="85"/>
-      <c r="CF2" s="83" t="s">
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="97"/>
+      <c r="CF2" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="CG2" s="84"/>
-      <c r="CH2" s="85"/>
-      <c r="CI2" s="83" t="s">
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="97"/>
+      <c r="CI2" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="CJ2" s="84"/>
-      <c r="CK2" s="85"/>
+      <c r="CJ2" s="96"/>
+      <c r="CK2" s="97"/>
       <c r="CL2" s="36"/>
       <c r="CM2" s="36" t="s">
         <v>138</v>
@@ -10571,31 +10582,31 @@
       <c r="CY2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="CZ2" s="80" t="s">
+      <c r="CZ2" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="DA2" s="82"/>
-      <c r="DB2" s="80" t="s">
+      <c r="DA2" s="81"/>
+      <c r="DB2" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="DC2" s="82"/>
-      <c r="DD2" s="80" t="s">
+      <c r="DC2" s="81"/>
+      <c r="DD2" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="DE2" s="82"/>
+      <c r="DE2" s="81"/>
       <c r="DF2" s="43"/>
-      <c r="DG2" s="80" t="s">
+      <c r="DG2" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="DH2" s="82"/>
-      <c r="DI2" s="80" t="s">
+      <c r="DH2" s="81"/>
+      <c r="DI2" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="DJ2" s="82"/>
-      <c r="DK2" s="80" t="s">
+      <c r="DJ2" s="81"/>
+      <c r="DK2" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="DL2" s="82"/>
+      <c r="DL2" s="81"/>
       <c r="DM2" s="35" t="s">
         <v>128</v>
       </c>
@@ -10617,21 +10628,21 @@
       <c r="DS2" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="DT2" s="80" t="s">
+      <c r="DT2" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="DU2" s="81"/>
-      <c r="DV2" s="82"/>
-      <c r="DW2" s="80" t="s">
+      <c r="DU2" s="83"/>
+      <c r="DV2" s="81"/>
+      <c r="DW2" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="DX2" s="81"/>
-      <c r="DY2" s="82"/>
-      <c r="DZ2" s="80" t="s">
+      <c r="DX2" s="83"/>
+      <c r="DY2" s="81"/>
+      <c r="DZ2" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="EA2" s="81"/>
-      <c r="EB2" s="82"/>
+      <c r="EA2" s="83"/>
+      <c r="EB2" s="81"/>
       <c r="EC2" s="35" t="s">
         <v>138</v>
       </c>
@@ -10665,27 +10676,27 @@
       <c r="EM2" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="EN2" s="80" t="s">
+      <c r="EN2" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="EO2" s="82"/>
-      <c r="EP2" s="80" t="s">
+      <c r="EO2" s="81"/>
+      <c r="EP2" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="EQ2" s="82"/>
-      <c r="ER2" s="80" t="s">
+      <c r="EQ2" s="81"/>
+      <c r="ER2" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="ES2" s="82"/>
-      <c r="ET2" s="83" t="s">
+      <c r="ES2" s="81"/>
+      <c r="ET2" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="EU2" s="84"/>
-      <c r="EV2" s="84"/>
-      <c r="EW2" s="84"/>
-      <c r="EX2" s="84"/>
-      <c r="EY2" s="84"/>
-      <c r="EZ2" s="85"/>
+      <c r="EU2" s="96"/>
+      <c r="EV2" s="96"/>
+      <c r="EW2" s="96"/>
+      <c r="EX2" s="96"/>
+      <c r="EY2" s="96"/>
+      <c r="EZ2" s="97"/>
       <c r="FA2" s="16" t="s">
         <v>153</v>
       </c>
@@ -10754,14 +10765,14 @@
       <c r="AJ3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AK3" s="93" t="s">
+      <c r="AK3" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="93" t="s">
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="AN3" s="94"/>
+      <c r="AN3" s="85"/>
       <c r="AO3" s="14"/>
       <c r="AP3" s="14" t="s">
         <v>165</v>
@@ -10776,18 +10787,18 @@
       <c r="AT3" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AU3" s="95" t="s">
+      <c r="AU3" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="95" t="s">
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="97"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="88"/>
       <c r="BC3" s="14"/>
       <c r="BD3" s="14"/>
       <c r="BE3" s="14"/>
@@ -10801,12 +10812,12 @@
       <c r="BM3" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="80"/>
-      <c r="BS3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="81"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="81"/>
       <c r="BT3" s="35"/>
       <c r="BU3" s="36">
         <v>0.25</v>
@@ -10830,21 +10841,21 @@
         <v>0.05</v>
       </c>
       <c r="CB3" s="34"/>
-      <c r="CC3" s="80">
+      <c r="CC3" s="82">
         <v>0.15</v>
       </c>
-      <c r="CD3" s="81"/>
-      <c r="CE3" s="82"/>
-      <c r="CF3" s="80">
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="81"/>
+      <c r="CF3" s="82">
         <v>0.15</v>
       </c>
-      <c r="CG3" s="81"/>
-      <c r="CH3" s="82"/>
-      <c r="CI3" s="80">
+      <c r="CG3" s="83"/>
+      <c r="CH3" s="81"/>
+      <c r="CI3" s="82">
         <v>0.15</v>
       </c>
-      <c r="CJ3" s="81"/>
-      <c r="CK3" s="82"/>
+      <c r="CJ3" s="83"/>
+      <c r="CK3" s="81"/>
       <c r="CL3" s="36"/>
       <c r="CM3" s="36">
         <v>0.1</v>
@@ -10923,10 +10934,10 @@
       <c r="EQ3" s="36"/>
       <c r="ER3" s="36"/>
       <c r="ES3" s="36"/>
-      <c r="ET3" s="80" t="s">
+      <c r="ET3" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="EU3" s="82"/>
+      <c r="EU3" s="81"/>
       <c r="EV3" s="36" t="s">
         <v>171</v>
       </c>
@@ -11015,18 +11026,18 @@
       <c r="BM4" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BN4" s="80" t="s">
+      <c r="BN4" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="80" t="s">
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="80" t="s">
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="BS4" s="82"/>
+      <c r="BS4" s="81"/>
       <c r="BT4" s="35"/>
       <c r="BU4" s="36" t="s">
         <v>179</v>
@@ -11050,21 +11061,21 @@
         <v>134</v>
       </c>
       <c r="CB4" s="34"/>
-      <c r="CC4" s="80" t="s">
+      <c r="CC4" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="82"/>
-      <c r="CF4" s="80" t="s">
+      <c r="CD4" s="83"/>
+      <c r="CE4" s="81"/>
+      <c r="CF4" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="CG4" s="81"/>
-      <c r="CH4" s="82"/>
-      <c r="CI4" s="80" t="s">
+      <c r="CG4" s="83"/>
+      <c r="CH4" s="81"/>
+      <c r="CI4" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="CJ4" s="81"/>
-      <c r="CK4" s="82"/>
+      <c r="CJ4" s="83"/>
+      <c r="CK4" s="81"/>
       <c r="CL4" s="36"/>
       <c r="CM4" s="36" t="s">
         <v>184</v>
@@ -11227,18 +11238,18 @@
       <c r="BM5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="BN5" s="80" t="s">
+      <c r="BN5" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="BO5" s="82"/>
-      <c r="BP5" s="80" t="s">
+      <c r="BO5" s="81"/>
+      <c r="BP5" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="BQ5" s="82"/>
-      <c r="BR5" s="80" t="s">
+      <c r="BQ5" s="81"/>
+      <c r="BR5" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="BS5" s="82"/>
+      <c r="BS5" s="81"/>
       <c r="BT5" s="35"/>
       <c r="BU5" s="36" t="s">
         <v>194</v>
@@ -11262,21 +11273,21 @@
         <v>202</v>
       </c>
       <c r="CB5" s="34"/>
-      <c r="CC5" s="80" t="s">
+      <c r="CC5" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="CD5" s="81"/>
-      <c r="CE5" s="82"/>
-      <c r="CF5" s="80" t="s">
+      <c r="CD5" s="83"/>
+      <c r="CE5" s="81"/>
+      <c r="CF5" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="CG5" s="81"/>
-      <c r="CH5" s="82"/>
-      <c r="CI5" s="80" t="s">
+      <c r="CG5" s="83"/>
+      <c r="CH5" s="81"/>
+      <c r="CI5" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="CJ5" s="81"/>
-      <c r="CK5" s="82"/>
+      <c r="CJ5" s="83"/>
+      <c r="CK5" s="81"/>
       <c r="CL5" s="36"/>
       <c r="CM5" s="36" t="s">
         <v>197</v>
@@ -11313,18 +11324,18 @@
       <c r="CY5" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="CZ5" s="80" t="s">
+      <c r="CZ5" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="DA5" s="82"/>
-      <c r="DB5" s="83" t="s">
+      <c r="DA5" s="81"/>
+      <c r="DB5" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="DC5" s="82"/>
-      <c r="DD5" s="80" t="s">
+      <c r="DC5" s="81"/>
+      <c r="DD5" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="DE5" s="82"/>
+      <c r="DE5" s="81"/>
       <c r="DF5" s="36"/>
       <c r="DG5" s="36"/>
       <c r="DH5" s="36"/>
@@ -36577,6 +36588,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="DW2:DY2"/>
+    <mergeCell ref="ET2:EZ2"/>
+    <mergeCell ref="ET3:EU3"/>
+    <mergeCell ref="DF1:EK1"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="ER2:ES2"/>
+    <mergeCell ref="BM1:CV1"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="D1:BL1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="CC5:CE5"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="DB5:DC5"/>
     <mergeCell ref="EN2:EO2"/>
     <mergeCell ref="EP2:EQ2"/>
@@ -36593,44 +36642,6 @@
     <mergeCell ref="DZ2:EB2"/>
     <mergeCell ref="DB2:DC2"/>
     <mergeCell ref="DT2:DV2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BN5:BO5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="CC5:CE5"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BM1:CV1"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="D1:BL1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="DW2:DY2"/>
-    <mergeCell ref="ET2:EZ2"/>
-    <mergeCell ref="ET3:EU3"/>
-    <mergeCell ref="DF1:EK1"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="ER2:ES2"/>
   </mergeCells>
   <conditionalFormatting sqref="BN10:BS28 BN31:BS32 BN34:BS35 BN61:BS61 BN63:BS69 BN72:BS72 CA31:CA32 CA34:CA35 CA37:CA41 CA10:CA28 BN43:BS57 CA43:CA78">
     <cfRule type="expression" dxfId="802" priority="7866">
@@ -40128,12 +40139,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40366,18 +40379,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BB4C9F-D40C-4ADC-9BDB-C329A4CCAEE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D6FAE6-84F9-4089-BDF6-D34A7F4671D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40385,5 +40396,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D6FAE6-84F9-4089-BDF6-D34A7F4671D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BB4C9F-D40C-4ADC-9BDB-C329A4CCAEE2}"/>
 </file>